--- a/pred_ohlcv/54_21/2020-01-23 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 TRV ohlcv.xlsx
@@ -2082,7 +2082,7 @@
         <v>-2512219.103769524</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2508996.445769524</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2508952.001169524</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2538502.056069524</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2551027.504869524</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2386905.349969524</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1877217.726869524</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1877217.726869524</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1853507.495069524</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1853507.495069524</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1854507.495069524</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1853855.495069524</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1853855.495069524</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1856086.106569524</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1947715.270569524</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2042499.149369524</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2042625.149369524</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2033891.669869524</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2034125.656269524</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2033918.656269524</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2034140.656269524</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2034753.190369525</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2034713.190369525</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2035344.190369525</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2018760.190369525</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2018802.190369525</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2018802.190369525</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2019484.220269524</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2019484.220269524</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2016684.220269524</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2028564.788969524</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2028564.788969524</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2028606.788969524</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2028945.788969524</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2028742.788969524</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2037957.061169524</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2000450.660969524</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2000408.660969524</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2002576.522369524</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2034739.240469524</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2026891.673269524</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2026546.671169524</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2030946.671169524</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2043139.941569524</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2030181.941569524</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2030223.941569524</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2342727.895669524</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2550969.630369524</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2521598.837969524</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2648749.665269524</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2648749.665269524</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2414763.081069524</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2453692.521069524</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-3461195.877869524</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3268367.102269524</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-3268495.549669524</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3356618.369369524</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-3356618.369369524</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3283801.811769524</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-3265169.027469524</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3254639.027469524</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2621172.827369524</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2152998.300869524</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2152998.300869524</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2151498.780324033</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1991093.331069524</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1816292.012069524</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1553414.698215014</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1553414.698215014</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1625390.131915014</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1656195.339215014</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1656145.339215014</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1656145.339215014</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1764881.438715014</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1812008.810115014</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1811968.457815014</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1841987.343515014</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1816148.645515014</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1834312.366715014</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1422325.845615014</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1443471.845615014</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1443471.845615014</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1523962.888415014</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1516678.138015014</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1516678.138015014</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1573256.025515014</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1573206.025515014</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1619296.593315014</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1619296.593315014</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1619296.593315014</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1619296.593315014</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1664514.325815014</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-2058340.697915014</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-2058340.697915014</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-2058258.697915014</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-2124792.223215014</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1969725.426315014</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1991551.426315014</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2594014.348615014</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2740142.208015015</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2741234.030015015</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2741234.030015015</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2959343.376943249</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2959302.576943249</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2981633.576943249</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-2964821.459643249</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-2964771.459643249</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 TRV ohlcv.xlsx
@@ -2082,7 +2082,7 @@
         <v>-2512219.103769524</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2512174.337069524</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2512174.337069524</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2511854.337069524</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2507444.337069524</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2507570.337069524</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2508996.445769524</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2538502.056069524</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2551027.504869524</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2386905.349969524</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1877549.726869524</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1877549.726869524</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1877549.726869524</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1876684.782069524</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1877033.826869524</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1877081.826869524</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1877081.826869524</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1877161.826869524</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1877203.826869524</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1895323.707969524</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1853507.495069524</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1853507.495069524</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1853855.495069524</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1853855.495069524</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1844753.495069524</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1855189.390469524</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1856086.106569524</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1855414.106569524</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1855498.106569524</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1947757.270569524</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1947757.270569524</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1947799.270569524</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2042499.149369524</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2042625.149369524</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2033891.669869524</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2034125.656269524</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2033918.656269524</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2034140.656269524</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2026891.673269524</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2026546.671169524</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2030946.671169524</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2648749.665269524</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2648749.665269524</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2414763.081069524</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-3277918.148869524</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-3268408.102269524</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-3356618.369369524</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3283801.811769524</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-3284639.027469524</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3254598.027469524</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-3254598.027469524</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3070974.768069524</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3070933.768069524</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3070933.768069524</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-3006758.077769524</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2614589.439469524</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2621172.827369524</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2256625.929669524</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2152998.300869524</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2152998.300869524</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2151498.780324033</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1991093.331069524</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1656145.339215014</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1811968.457815014</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1841987.343515014</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1816148.645515014</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1443471.845615014</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1443471.845615014</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1523962.888415014</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1516678.138015014</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2594014.348615014</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2685217.744615015</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2663323.961415015</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-2662323.961415015</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2740142.208015015</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2741234.030015015</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2741234.030015015</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2959343.376943249</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2959302.576943249</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2981633.576943249</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-2964821.459643249</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-2964771.459643249</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-3024774.17914325</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
